--- a/cams/idw2017.xlsx
+++ b/cams/idw2017.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,21 +469,21 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C2" t="n">
-        <v>3101</v>
+        <v>1054</v>
       </c>
       <c r="D2" t="n">
-        <v>11.125</v>
+        <v>13.68181818181818</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>Anta-Espinho</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>10.76591285108614</v>
+        <v>20.64603079546817</v>
       </c>
     </row>
     <row r="3">
@@ -491,21 +491,21 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C3" t="n">
-        <v>1054</v>
+        <v>3093</v>
       </c>
       <c r="D3" t="n">
-        <v>9.458333333333334</v>
+        <v>36.49166666666667</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Anta-Espinho</t>
+          <t>Arcos</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>8.919388073918757</v>
+        <v>32.93764130559803</v>
       </c>
     </row>
     <row r="4">
@@ -513,21 +513,21 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C4" t="n">
-        <v>3093</v>
+        <v>2017</v>
       </c>
       <c r="D4" t="n">
-        <v>10.30416666666667</v>
+        <v>27.125</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Arcos</t>
+          <t>Aveiro</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>9.510128143570178</v>
+        <v>18.85869837746607</v>
       </c>
     </row>
     <row r="5">
@@ -535,21 +535,21 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C5" t="n">
-        <v>2017</v>
+        <v>3075</v>
       </c>
       <c r="D5" t="n">
-        <v>16.08333333333333</v>
+        <v>48.41666666666666</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Aveiro</t>
+          <t>Avenida da Liberdade</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>10.53674464484264</v>
+        <v>32.89084930364226</v>
       </c>
     </row>
     <row r="6">
@@ -557,21 +557,21 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C6" t="n">
-        <v>3075</v>
+        <v>1053</v>
       </c>
       <c r="D6" t="n">
-        <v>13.22083333333333</v>
+        <v>27.2</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Avenida da Liberdade</t>
+          <t>Avintes</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>10.61569477459174</v>
+        <v>21.89124717822572</v>
       </c>
     </row>
     <row r="7">
@@ -579,21 +579,21 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C7" t="n">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D7" t="n">
-        <v>9.454545454545455</v>
+        <v>24.45454545454545</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Avintes</t>
+          <t>Burgães-Santo Tirso</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>8.987380214712411</v>
+        <v>18.73569299496276</v>
       </c>
     </row>
     <row r="8">
@@ -601,21 +601,21 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C8" t="n">
-        <v>1052</v>
+        <v>3104</v>
       </c>
       <c r="D8" t="n">
-        <v>6.565217391304348</v>
+        <v>41.12380952380953</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Burgães-Santo Tirso</t>
+          <t>Cascais - Escola da Cidadela</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>9.95616570512346</v>
+        <v>28.20358804427715</v>
       </c>
     </row>
     <row r="9">
@@ -623,13 +623,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C9" t="n">
         <v>5012</v>
       </c>
       <c r="D9" t="n">
-        <v>14.81</v>
+        <v>14.45833333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>6.42172195169274</v>
+        <v>16.79738220759935</v>
       </c>
     </row>
     <row r="10">
@@ -645,13 +645,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C10" t="n">
         <v>3096</v>
       </c>
       <c r="D10" t="n">
-        <v>8.529166666666667</v>
+        <v>29.04583333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9.461290617517625</v>
+        <v>23.06041636353474</v>
       </c>
     </row>
     <row r="11">
@@ -667,21 +667,21 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C11" t="n">
-        <v>1046</v>
+        <v>2006</v>
       </c>
       <c r="D11" t="n">
-        <v>15.5</v>
+        <v>37.58333333333334</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Cónego Dr. Manuel Faria-Azurém</t>
+          <t>Coimbra/ Avenida Fernão Magalhães</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>8.342819318559032</v>
+        <v>24.21703155113064</v>
       </c>
     </row>
     <row r="12">
@@ -689,21 +689,21 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C12" t="n">
-        <v>5011</v>
+        <v>1046</v>
       </c>
       <c r="D12" t="n">
-        <v>20.07727272727273</v>
+        <v>18.83333333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>David Neto</t>
+          <t>Cónego Dr. Manuel Faria-Azurém</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>10.07072169123877</v>
+        <v>15.45705537044591</v>
       </c>
     </row>
     <row r="13">
@@ -711,21 +711,21 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C13" t="n">
-        <v>1024</v>
+        <v>5011</v>
       </c>
       <c r="D13" t="n">
-        <v>9.826086956521738</v>
+        <v>38.29166666666666</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>D.Manuel II-Vermoim</t>
+          <t>David Neto</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>10.02741055940866</v>
+        <v>29.74194464589739</v>
       </c>
     </row>
     <row r="14">
@@ -733,13 +733,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C14" t="n">
         <v>1048</v>
       </c>
       <c r="D14" t="n">
-        <v>5.916666666666667</v>
+        <v>10.75</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>6.320286213374006</v>
+        <v>9.911897496874564</v>
       </c>
     </row>
     <row r="15">
@@ -755,21 +755,21 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C15" t="n">
-        <v>2019</v>
+        <v>3072</v>
       </c>
       <c r="D15" t="n">
-        <v>36.66666666666666</v>
+        <v>40.19583333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Ervedeira</t>
+          <t>Entrecampos</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>15.17797097620396</v>
+        <v>31.7736527854409</v>
       </c>
     </row>
     <row r="16">
@@ -777,21 +777,21 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C16" t="n">
-        <v>3095</v>
+        <v>1023</v>
       </c>
       <c r="D16" t="n">
-        <v>21.97083333333333</v>
+        <v>27.20833333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Escavadeira</t>
+          <t>Ermesinde-Valongo</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>10.50158575568856</v>
+        <v>22.68205445900004</v>
       </c>
     </row>
     <row r="17">
@@ -799,21 +799,21 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C17" t="n">
-        <v>2004</v>
+        <v>2019</v>
       </c>
       <c r="D17" t="n">
-        <v>8.666666666666666</v>
+        <v>31.45833333333333</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Estarreja</t>
+          <t>Ervedeira</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>9.358947740527761</v>
+        <v>25.17787668475592</v>
       </c>
     </row>
     <row r="18">
@@ -821,21 +821,21 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C18" t="n">
-        <v>3099</v>
+        <v>3095</v>
       </c>
       <c r="D18" t="n">
-        <v>5.983333333333333</v>
+        <v>35.2875</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Fernando Pó</t>
+          <t>Escavadeira</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>8.71077527655034</v>
+        <v>33.82417065389357</v>
       </c>
     </row>
     <row r="19">
@@ -843,21 +843,21 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C19" t="n">
-        <v>3103</v>
+        <v>2004</v>
       </c>
       <c r="D19" t="n">
-        <v>13.31666666666667</v>
+        <v>17.89473684210526</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Fidalguinhos</t>
+          <t>Estarreja</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>10.42504926566146</v>
+        <v>18.94870887804427</v>
       </c>
     </row>
     <row r="20">
@@ -865,21 +865,21 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C20" t="n">
-        <v>1041</v>
+        <v>3099</v>
       </c>
       <c r="D20" t="n">
-        <v>12.66666666666667</v>
+        <v>38.3375</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Fr Bartolomeu Mártires-S.Vitor</t>
+          <t>Fernando Pó</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>8.329696904731634</v>
+        <v>28.03150538351018</v>
       </c>
     </row>
     <row r="21">
@@ -887,21 +887,21 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C21" t="n">
-        <v>1042</v>
+        <v>2021</v>
       </c>
       <c r="D21" t="n">
-        <v>2.208333333333333</v>
+        <v>14.47368421052632</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Frossos-Braga</t>
+          <t>Fornelo do Monte</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>8.181707668830004</v>
+        <v>14.67341021479265</v>
       </c>
     </row>
     <row r="22">
@@ -909,21 +909,21 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C22" t="n">
-        <v>2020</v>
+        <v>1028</v>
       </c>
       <c r="D22" t="n">
-        <v>4.125</v>
+        <v>17.22727272727273</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Fundão</t>
+          <t>Francisco Sá Carneiro-Campanha</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5.996667186688675</v>
+        <v>23.03242851249266</v>
       </c>
     </row>
     <row r="23">
@@ -931,21 +931,21 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C23" t="n">
-        <v>2018</v>
+        <v>1042</v>
       </c>
       <c r="D23" t="n">
-        <v>14.25</v>
+        <v>10.08333333333333</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Ílhavo</t>
+          <t>Frossos-Braga</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>10.84604518136105</v>
+        <v>15.10060868609654</v>
       </c>
     </row>
     <row r="24">
@@ -953,21 +953,21 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C24" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D24" t="n">
-        <v>5.958333333333333</v>
+        <v>18.41666666666667</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Instituto Geofísico de Coimbra</t>
+          <t>Fundão</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>9.096442073503013</v>
+        <v>14.6387783591567</v>
       </c>
     </row>
     <row r="25">
@@ -975,21 +975,21 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C25" t="n">
-        <v>1030</v>
+        <v>2018</v>
       </c>
       <c r="D25" t="n">
-        <v>12.75</v>
+        <v>32.83333333333334</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>João Gomes Laranjo-S.Hora</t>
+          <t>Ílhavo</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>9.730453885221131</v>
+        <v>18.55732009616839</v>
       </c>
     </row>
     <row r="26">
@@ -997,21 +997,21 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C26" t="n">
-        <v>5007</v>
+        <v>2016</v>
       </c>
       <c r="D26" t="n">
-        <v>10.64583333333333</v>
+        <v>28.45833333333333</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Joaquim Magalhães</t>
+          <t>Instituto Geofísico de Coimbra</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>11.12959874267973</v>
+        <v>24.40424949410358</v>
       </c>
     </row>
     <row r="27">
@@ -1019,21 +1019,21 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C27" t="n">
-        <v>3083</v>
+        <v>1030</v>
       </c>
       <c r="D27" t="n">
-        <v>11.4125</v>
+        <v>27.28571428571428</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Laranjeiro</t>
+          <t>João Gomes Laranjo-S.Hora</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>10.08624422351237</v>
+        <v>23.26173016194345</v>
       </c>
     </row>
     <row r="28">
@@ -1041,21 +1041,21 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C28" t="n">
-        <v>3085</v>
+        <v>5007</v>
       </c>
       <c r="D28" t="n">
-        <v>8.920833333333333</v>
+        <v>30.44166666666667</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Loures-Centro</t>
+          <t>Joaquim Magalhães</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>10.68003617412925</v>
+        <v>27.02458913103547</v>
       </c>
     </row>
     <row r="29">
@@ -1063,21 +1063,21 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C29" t="n">
-        <v>3102</v>
+        <v>3083</v>
       </c>
       <c r="D29" t="n">
-        <v>6.1875</v>
+        <v>38.62916666666667</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Lourinhã</t>
+          <t>Laranjeiro</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>11.10355024658607</v>
+        <v>32.97233577505904</v>
       </c>
     </row>
     <row r="30">
@@ -1085,21 +1085,21 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C30" t="n">
-        <v>5008</v>
+        <v>3055</v>
       </c>
       <c r="D30" t="n">
-        <v>15.86666666666667</v>
+        <v>39.97916666666666</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Malpique</t>
+          <t>Lavradio</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>11.00034235635314</v>
+        <v>33.6246065931518</v>
       </c>
     </row>
     <row r="31">
@@ -1107,21 +1107,21 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C31" t="n">
-        <v>3089</v>
+        <v>3085</v>
       </c>
       <c r="D31" t="n">
-        <v>11.45833333333333</v>
+        <v>25.6375</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Mem Martins</t>
+          <t>Loures-Centro</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>9.74958644572607</v>
+        <v>27.97678762543504</v>
       </c>
     </row>
     <row r="32">
@@ -1129,21 +1129,21 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C32" t="n">
-        <v>2022</v>
+        <v>3102</v>
       </c>
       <c r="D32" t="n">
-        <v>8</v>
+        <v>25.84583333333333</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Montemor-o-Velho</t>
+          <t>Lourinhã</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>11.77814744056259</v>
+        <v>25.45935860930451</v>
       </c>
     </row>
     <row r="33">
@@ -1151,21 +1151,21 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C33" t="n">
-        <v>4002</v>
+        <v>5008</v>
       </c>
       <c r="D33" t="n">
-        <v>10.4375</v>
+        <v>43.41666666666666</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Monte Velho</t>
+          <t>Malpique</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>8.534535025581274</v>
+        <v>29.89094651229147</v>
       </c>
     </row>
     <row r="34">
@@ -1173,21 +1173,21 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C34" t="n">
-        <v>3097</v>
+        <v>1025</v>
       </c>
       <c r="D34" t="n">
-        <v>17.29583333333333</v>
+        <v>20.25</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Odivelas-Ramada</t>
+          <t>Meco-Perafita</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>10.66907071368815</v>
+        <v>22.66369613285387</v>
       </c>
     </row>
     <row r="35">
@@ -1195,21 +1195,21 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C35" t="n">
-        <v>3071</v>
+        <v>3089</v>
       </c>
       <c r="D35" t="n">
-        <v>9.191666666666666</v>
+        <v>27.72083333333333</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Olivais</t>
+          <t>Mem Martins</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>11.02520744139568</v>
+        <v>26.55954726445246</v>
       </c>
     </row>
     <row r="36">
@@ -1217,21 +1217,21 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C36" t="n">
-        <v>1044</v>
+        <v>1051</v>
       </c>
       <c r="D36" t="n">
-        <v>13.33333333333333</v>
+        <v>16.58333333333333</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Paços de Ferreira</t>
+          <t>Mindelo-Vila do Conde</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>9.298722885295572</v>
+        <v>21.24585750058139</v>
       </c>
     </row>
     <row r="37">
@@ -1239,21 +1239,21 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C37" t="n">
-        <v>3063</v>
+        <v>2022</v>
       </c>
       <c r="D37" t="n">
-        <v>14.77916666666667</v>
+        <v>28.625</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Paio Pires</t>
+          <t>Montemor-o-Velho</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>9.977071207841441</v>
+        <v>25.25524961832934</v>
       </c>
     </row>
     <row r="38">
@@ -1261,21 +1261,21 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C38" t="n">
-        <v>1043</v>
+        <v>3097</v>
       </c>
       <c r="D38" t="n">
-        <v>5.238095238095238</v>
+        <v>43.25416666666666</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Pe Moreira Neves-Castelões de Cepeda</t>
+          <t>Odivelas-Ramada</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>8.105708670925109</v>
+        <v>28.63738323879013</v>
       </c>
     </row>
     <row r="39">
@@ -1283,21 +1283,21 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C39" t="n">
-        <v>3094</v>
+        <v>3071</v>
       </c>
       <c r="D39" t="n">
-        <v>8.491666666666667</v>
+        <v>36.34166666666667</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Quebedo</t>
+          <t>Olivais</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>9.491900985776738</v>
+        <v>31.03275876896798</v>
       </c>
     </row>
     <row r="40">
@@ -1305,21 +1305,21 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C40" t="n">
-        <v>3091</v>
+        <v>1044</v>
       </c>
       <c r="D40" t="n">
-        <v>6.6375</v>
+        <v>27.79166666666667</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Quinta do Marquês</t>
+          <t>Paços de Ferreira</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>9.573682075804852</v>
+        <v>18.62189344545493</v>
       </c>
     </row>
     <row r="41">
@@ -1327,21 +1327,21 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C41" t="n">
-        <v>3084</v>
+        <v>3063</v>
       </c>
       <c r="D41" t="n">
-        <v>3.733333333333334</v>
+        <v>38.65833333333333</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Reboleira</t>
+          <t>Paio Pires</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>10.27765103729885</v>
+        <v>33.57066858262246</v>
       </c>
     </row>
     <row r="42">
@@ -1349,21 +1349,21 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C42" t="n">
-        <v>3100</v>
+        <v>1043</v>
       </c>
       <c r="D42" t="n">
-        <v>21.02142857142857</v>
+        <v>7</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Santa Cruz de Benfica</t>
+          <t>Pe Moreira Neves-Castelões de Cepeda</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>10.29451212272313</v>
+        <v>18.08886559205197</v>
       </c>
     </row>
     <row r="43">
@@ -1371,21 +1371,21 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C43" t="n">
-        <v>4004</v>
+        <v>3094</v>
       </c>
       <c r="D43" t="n">
-        <v>30.94117647058824</v>
+        <v>39.85833333333333</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Santiago do Cacém</t>
+          <t>Quebedo</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>8.3601734100359</v>
+        <v>33.01948570155671</v>
       </c>
     </row>
     <row r="44">
@@ -1393,21 +1393,21 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C44" t="n">
-        <v>1055</v>
+        <v>3091</v>
       </c>
       <c r="D44" t="n">
-        <v>9.625</v>
+        <v>28.62916666666667</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Seara-Matosinhos</t>
+          <t>Quinta do Marquês</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>9.708122602260032</v>
+        <v>29.65253984794291</v>
       </c>
     </row>
     <row r="45">
@@ -1415,21 +1415,21 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C45" t="n">
-        <v>4003</v>
+        <v>3084</v>
       </c>
       <c r="D45" t="n">
-        <v>5.666666666666667</v>
+        <v>31.62083333333333</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Sonega</t>
+          <t>Reboleira</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>8.599419658780477</v>
+        <v>29.48644693160862</v>
       </c>
     </row>
     <row r="46">
@@ -1437,21 +1437,21 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C46" t="n">
-        <v>4006</v>
+        <v>1055</v>
       </c>
       <c r="D46" t="n">
-        <v>21.66666666666667</v>
+        <v>25</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Terena</t>
+          <t>Seara-Matosinhos</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>9.057978305910863</v>
+        <v>23.30881037668967</v>
       </c>
     </row>
     <row r="47">
@@ -1459,21 +1459,65 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>43026</v>
+        <v>43271</v>
       </c>
       <c r="C47" t="n">
+        <v>4003</v>
+      </c>
+      <c r="D47" t="n">
+        <v>19.29166666666667</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Sonega</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>24.91582792010203</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>43271</v>
+      </c>
+      <c r="C48" t="n">
+        <v>4006</v>
+      </c>
+      <c r="D48" t="n">
+        <v>25.33333333333333</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Terena</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>22.57544372407552</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>43271</v>
+      </c>
+      <c r="C49" t="n">
         <v>1031</v>
       </c>
-      <c r="D47" t="n">
-        <v>10.91666666666667</v>
-      </c>
-      <c r="E47" t="inlineStr">
+      <c r="D49" t="n">
+        <v>25.70588235294118</v>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>VNTelha-Maia</t>
         </is>
       </c>
-      <c r="F47" t="n">
-        <v>10.09257320437489</v>
+      <c r="F49" t="n">
+        <v>22.30368022065842</v>
       </c>
     </row>
   </sheetData>
